--- a/src/__tests__/test1.xlsx
+++ b/src/__tests__/test1.xlsx
@@ -22,16 +22,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">${data1}</t>
+    <t xml:space="preserve">&lt;%= data1 %&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">${data2}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;%= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data2 %&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">${data3}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;%= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data3 %&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">${data4}</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;%= </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="ヒラギノ角ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data4 %&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -41,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴシック"/>
@@ -63,13 +117,52 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="ヒラギノ角ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -115,7 +208,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,6 +229,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -139,10 +300,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -151,19 +315,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/__tests__/test1.xlsx
+++ b/src/__tests__/test1.xlsx
@@ -25,67 +25,13 @@
     <t xml:space="preserve">&lt;%= data1 %&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;%= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data2 %&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;%= data2 %&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;%= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data3 %&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;%= data3 %&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;%= </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data4 %&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;%= data4 %&gt;</t>
   </si>
 </sst>
 </file>
@@ -95,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴシック"/>
@@ -116,12 +62,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="ヒラギノ角ゴシック"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,18 +69,6 @@
       <name val="ヒラギノ角ゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ヒラギノ角ゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="ヒラギノ角ゴシック"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -212,11 +140,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,6 +220,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5464800" y="0"/>
+          <a:ext cx="387000" cy="367920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -300,10 +270,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
   </cols>
@@ -342,5 +312,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/__tests__/test1.xlsx
+++ b/src/__tests__/test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">&lt;%= data1 %&gt;</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%= data4 %&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%= data5 %&gt;</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +148,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,9 +238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>387000</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -246,8 +253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464800" y="0"/>
-          <a:ext cx="387000" cy="367920"/>
+          <a:off x="5468040" y="0"/>
+          <a:ext cx="386640" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -267,13 +274,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
   </cols>
@@ -299,15 +306,38 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="E3:F7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/__tests__/test1.xlsx
+++ b/src/__tests__/test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">&lt;%= data1 %&gt;</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%= data4 %&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%= data6 %&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%= data5 %&gt;</t>
@@ -130,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,6 +155,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,9 +245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>386640</xdr:colOff>
+      <xdr:colOff>386280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -253,8 +260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468040" y="0"/>
-          <a:ext cx="386640" cy="367560"/>
+          <a:off x="5471280" y="0"/>
+          <a:ext cx="386280" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -277,10 +284,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
   </cols>
@@ -307,32 +314,50 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="B3:D7"/>
     <mergeCell ref="E3:F7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/__tests__/test1.xlsx
+++ b/src/__tests__/test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">&lt;%= data1 %&gt;</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%= data4 %&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%= data6 %&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%= data5 %&gt;</t>
@@ -133,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,10 +152,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,9 +238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>386280</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,8 +253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5471280" y="0"/>
-          <a:ext cx="386280" cy="367200"/>
+          <a:off x="5468040" y="0"/>
+          <a:ext cx="386640" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -284,10 +277,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
   </cols>
@@ -314,50 +307,32 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
-    <mergeCell ref="B3:D7"/>
     <mergeCell ref="E3:F7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
